--- a/Labs/2.0 - Labs PacketTracer/Lab 2.3 - Table.xlsx
+++ b/Labs/2.0 - Labs PacketTracer/Lab 2.3 - Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00325351\Desktop\Lab2 - PacketTracer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\repos\MASE_PktTracer\Labs\2.0 - Labs PacketTracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8DCACE-AE67-4A79-B6EB-9626471A373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C288F557-6A2E-44EB-9D1B-35C27D16A584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8117C63-A3EF-46C5-8403-A5CB51F1EB01}"/>
+    <workbookView xWindow="11985" yWindow="225" windowWidth="16395" windowHeight="14790" xr2:uid="{E8117C63-A3EF-46C5-8403-A5CB51F1EB01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Test</t>
   </si>
@@ -93,7 +93,7 @@
     <t>00D0.588C.2401</t>
   </si>
   <si>
-    <t>How do you find these values?</t>
+    <t>172.16.31.2</t>
   </si>
 </sst>
 </file>
@@ -117,18 +117,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,7 +461,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,6 +574,12 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -597,7 +597,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
